--- a/File/TechnicalSheet.xlsx
+++ b/File/TechnicalSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ĐẠI HỌC\NAM4\RPA\RPA_Final2\sendmail\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DB21E-744E-4B81-9948-6C2D325F0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F91FFD-5600-4102-A3D3-E2C97ABE3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -49,42 +49,44 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">anhhl21411@st.uel.edu.vn </t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>binhntm21411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Tdung</t>
+  </si>
+  <si>
+    <t>dungttt21411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tdong</t>
+  </si>
+  <si>
+    <t>dongptt21411@st.uel.edu.vn</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Lanh</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>Tdung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungttt21411@st.uel.edu.vn </t>
-  </si>
-  <si>
-    <t>binhntm21411@st.uel.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -106,16 +108,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,11 +418,12 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
@@ -459,47 +459,42 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B40EBF14-B390-4689-8603-AFB3D5C981E9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{DEA0AC4A-8A47-45C7-B7D2-51555053F04F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{62227017-C974-4D19-8114-DAE015A34B7F}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>